--- a/documents/lecture_00/1125_Schedule_2022.xlsx
+++ b/documents/lecture_00/1125_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo1125Fall21/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0051E5F3-84E0-3E4C-BF34-0C9E522D6932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72CBC9-16A4-8F44-B8ED-DA407F3C7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="3460" windowWidth="22040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2140" windowWidth="22040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1767,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>44448</v>
+        <v>44812</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B7" s="16">
         <f>B5+5</f>
-        <v>44453</v>
+        <v>44817</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>36</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B9" s="16">
         <f>B7+2</f>
-        <v>44455</v>
+        <v>44819</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>37</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B11" s="16">
         <f>B9+5</f>
-        <v>44460</v>
+        <v>44824</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B13" s="16">
         <f>B11+2</f>
-        <v>44462</v>
+        <v>44826</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B15" s="16">
         <f>B13+5</f>
-        <v>44467</v>
+        <v>44831</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>40</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B17" s="16">
         <f>B15+2</f>
-        <v>44469</v>
+        <v>44833</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>42</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B20" s="16">
         <f>B17+5</f>
-        <v>44474</v>
+        <v>44838</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>45</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B22" s="27">
         <f>B20+2</f>
-        <v>44476</v>
+        <v>44840</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>44</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B24" s="16">
         <f>B22+5</f>
-        <v>44481</v>
+        <v>44845</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>47</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B26" s="16">
         <f>B24+2</f>
-        <v>44483</v>
+        <v>44847</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>48</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B28" s="27">
         <f>B26+5</f>
-        <v>44488</v>
+        <v>44852</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>51</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B30" s="13">
         <f>B28+2</f>
-        <v>44490</v>
+        <v>44854</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>50</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B32" s="13">
         <f>B30+5</f>
-        <v>44495</v>
+        <v>44859</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>49</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B34" s="27">
         <f>B32+2</f>
-        <v>44497</v>
+        <v>44861</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>49</v>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B38" s="27">
         <f>B34+5</f>
-        <v>44502</v>
+        <v>44866</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>18</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B40" s="32">
         <f>B38+2</f>
-        <v>44504</v>
+        <v>44868</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>18</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B42" s="32">
         <f>B40+5</f>
-        <v>44509</v>
+        <v>44873</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>18</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B44" s="27">
         <f>B42+2</f>
-        <v>44511</v>
+        <v>44875</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>54</v>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B46" s="13">
         <f>B44+5</f>
-        <v>44516</v>
+        <v>44880</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>18</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B48" s="13">
         <f>B46+2</f>
-        <v>44518</v>
+        <v>44882</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>18</v>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B50" s="15">
         <f>B48+5</f>
-        <v>44523</v>
+        <v>44887</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>18</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B52" s="16">
         <f>B50+2</f>
-        <v>44525</v>
+        <v>44889</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>55</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B54" s="16">
         <f>B52+5</f>
-        <v>44530</v>
+        <v>44894</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>35</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B56" s="15">
         <f>B54+2</f>
-        <v>44532</v>
+        <v>44896</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>59</v>

--- a/documents/lecture_00/1125_Schedule_2022.xlsx
+++ b/documents/lecture_00/1125_Schedule_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo1125Fall21/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72CBC9-16A4-8F44-B8ED-DA407F3C7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424931B-E525-FE4D-B850-69D04718BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2140" windowWidth="22040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="2500" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>SES #</t>
   </si>
@@ -127,75 +127,15 @@
     <t>1.125 Software Engineering &amp; Architecting</t>
   </si>
   <si>
-    <t>HW08: Project Deliverable 02</t>
-  </si>
-  <si>
-    <t>HW07: Project Deliverable 01</t>
-  </si>
-  <si>
     <t>HW00: Install VSCode and Git</t>
   </si>
   <si>
-    <t>HW01- setup git website</t>
-  </si>
-  <si>
     <t>Practice Presentations</t>
   </si>
   <si>
-    <t>Final Presentations</t>
-  </si>
-  <si>
-    <t>Internet &amp; Web - Rise of Distributed Computing</t>
-  </si>
-  <si>
-    <t>IoT Data and Rise of FAANGs</t>
-  </si>
-  <si>
-    <t>Cloud, Containers and Open Source</t>
-  </si>
-  <si>
-    <t>ML, AI - Building Predictive Models</t>
-  </si>
-  <si>
-    <t>Cyber Security</t>
-  </si>
-  <si>
-    <t>Technologies and Modern Web Computing</t>
-  </si>
-  <si>
-    <t>Blockchain</t>
-  </si>
-  <si>
-    <t>Digital Transformation, Cloud Architectures</t>
-  </si>
-  <si>
-    <t>Digital Transformations, Case Studies 2</t>
-  </si>
-  <si>
-    <t>Digital Transformations, Case Studies 1</t>
-  </si>
-  <si>
-    <t>Student Led</t>
-  </si>
-  <si>
-    <t>The Data Problem 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Data Problem 2 </t>
-  </si>
-  <si>
     <t>Open Source 1 - Students Demo an App</t>
   </si>
   <si>
-    <t>Machine Learning 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning 1 </t>
-  </si>
-  <si>
-    <t>HW02:  Docker Containers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project </t>
   </si>
   <si>
@@ -214,19 +154,76 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Final Presentations and Debrief</t>
-  </si>
-  <si>
-    <t>HW2 DUE - HW03 Case Study Prep</t>
-  </si>
-  <si>
-    <t>HW 4 - Demo App Prep</t>
-  </si>
-  <si>
-    <t>HW4 DUE - HW5 Demo App</t>
-  </si>
-  <si>
-    <t>HW6 Video Making</t>
+    <t>No Class Student Holiday</t>
+  </si>
+  <si>
+    <t>Modern Cloud Based Data Technololgies - Visualization</t>
+  </si>
+  <si>
+    <t>Data Engineering and Machine Learning in the Cloud</t>
+  </si>
+  <si>
+    <t>HW01- BI Report + GitHub Pages</t>
+  </si>
+  <si>
+    <t>HW02: MySQL</t>
+  </si>
+  <si>
+    <t>MySQL and Tableau 1</t>
+  </si>
+  <si>
+    <t>Google - Google BigQuery and Data Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud and Data Vizualization</t>
+  </si>
+  <si>
+    <t>Data Visualization 2 - SQL and Tableau</t>
+  </si>
+  <si>
+    <t>HW3 - House Price Prediction</t>
+  </si>
+  <si>
+    <t>Google Vision System and Text From Images</t>
+  </si>
+  <si>
+    <t>Regression, Feature Selection, and ML Prediction</t>
+  </si>
+  <si>
+    <t>Abel Choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Projects </t>
+  </si>
+  <si>
+    <t>Architecting Cloud Data Pipelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW 4 </t>
+  </si>
+  <si>
+    <t>Mini Project 1</t>
+  </si>
+  <si>
+    <t>Mini Project 2</t>
+  </si>
+  <si>
+    <t>Video Making Exercise</t>
+  </si>
+  <si>
+    <t>HW: Video Project Deliverable 01</t>
+  </si>
+  <si>
+    <t>HW: Project Deliverable 02</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Presentations </t>
+  </si>
+  <si>
+    <t>Debrief</t>
   </si>
 </sst>
 </file>
@@ -1690,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="3" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -1773,7 +1770,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1817,11 +1814,9 @@
         <v>44817</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="22"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -1864,9 +1859,11 @@
         <v>44819</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -1896,7 +1893,7 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
@@ -1909,11 +1906,9 @@
         <v>44824</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1932,9 +1927,11 @@
         <v>44826</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -1977,11 +1974,9 @@
         <v>44831</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2048,9 +2043,11 @@
         <v>44833</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -2079,7 +2076,7 @@
     </row>
     <row r="18" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -2132,11 +2129,9 @@
         <v>44838</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -2155,10 +2150,10 @@
         <v>44840</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -2178,11 +2173,9 @@
         <v>44845</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -2201,9 +2194,11 @@
         <v>44847</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -2222,11 +2217,9 @@
         <v>44852</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -2245,9 +2238,11 @@
         <v>44854</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -2266,11 +2261,9 @@
         <v>44859</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -2289,14 +2282,16 @@
         <v>44861</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2358,9 +2353,7 @@
       <c r="C38" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -2381,7 +2374,9 @@
       <c r="C40" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -2402,9 +2397,7 @@
       <c r="C42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="33"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -2423,9 +2416,11 @@
         <v>44875</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -2445,9 +2440,7 @@
       <c r="C46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -2468,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E48" s="19"/>
     </row>
@@ -2481,7 +2474,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B50" s="15">
         <f>B48+5</f>
@@ -2501,14 +2494,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B52" s="16">
         <f>B50+2</f>
         <v>44889</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2518,16 +2511,18 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54" s="16">
         <f>B52+5</f>
         <v>44894</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2535,22 +2530,29 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B56" s="15">
         <f>B54+2</f>
         <v>44896</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="16">
+        <f>B56+5</f>
+        <v>44901</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>

--- a/documents/lecture_00/1125_Schedule_2022.xlsx
+++ b/documents/lecture_00/1125_Schedule_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo1125Fall21/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424931B-E525-FE4D-B850-69D04718BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767503F4-02EF-A747-80CE-23D3251C3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="2500" windowWidth="21420" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>SES #</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Practice Presentations</t>
   </si>
   <si>
-    <t>Open Source 1 - Students Demo an App</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project </t>
   </si>
   <si>
@@ -166,33 +163,12 @@
     <t>HW01- BI Report + GitHub Pages</t>
   </si>
   <si>
-    <t>HW02: MySQL</t>
-  </si>
-  <si>
-    <t>MySQL and Tableau 1</t>
-  </si>
-  <si>
     <t>Google - Google BigQuery and Data Studio</t>
   </si>
   <si>
     <t xml:space="preserve"> Cloud and Data Vizualization</t>
   </si>
   <si>
-    <t>Data Visualization 2 - SQL and Tableau</t>
-  </si>
-  <si>
-    <t>HW3 - House Price Prediction</t>
-  </si>
-  <si>
-    <t>Google Vision System and Text From Images</t>
-  </si>
-  <si>
-    <t>Regression, Feature Selection, and ML Prediction</t>
-  </si>
-  <si>
-    <t>Abel Choice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mini Projects </t>
   </si>
   <si>
@@ -224,6 +200,27 @@
   </si>
   <si>
     <t>Debrief</t>
+  </si>
+  <si>
+    <t>RDBMS and Tableau 1</t>
+  </si>
+  <si>
+    <t>HW02: RDBMS</t>
+  </si>
+  <si>
+    <t>RDBMS, SQL and Tableau</t>
+  </si>
+  <si>
+    <t>Data Engr – Colab Python Pandas and DataBricks</t>
+  </si>
+  <si>
+    <t>Data Engr - Modern data engr stack, plus RDBMS</t>
+  </si>
+  <si>
+    <t>HW3 - Regression</t>
+  </si>
+  <si>
+    <t>Open Source 1 - Students Demo an ML App</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mm\ dd"/>
     <numFmt numFmtId="165" formatCode="[$-409]ddd\,\ mmm\ d"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +374,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -894,7 +905,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="40" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="40" applyFont="1"/>
@@ -955,6 +966,9 @@
     <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="392">
     <cellStyle name="Accent1" xfId="41" builtinId="29"/>
@@ -1687,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1711,7 +1725,7 @@
     </row>
     <row r="3" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -1814,7 +1828,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="22"/>
@@ -1859,10 +1873,10 @@
         <v>44819</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9"/>
@@ -1906,7 +1920,7 @@
         <v>44824</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="19"/>
@@ -1927,10 +1941,10 @@
         <v>44826</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13"/>
@@ -1974,7 +1988,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2043,10 +2057,10 @@
         <v>44833</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17"/>
@@ -2076,7 +2090,7 @@
     </row>
     <row r="18" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -2128,8 +2142,8 @@
         <f>B17+5</f>
         <v>44838</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>51</v>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2149,11 +2163,11 @@
         <f>B20+2</f>
         <v>44840</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>51</v>
+      <c r="C22" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -2173,7 +2187,7 @@
         <v>44845</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2194,10 +2208,10 @@
         <v>44847</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -2216,8 +2230,8 @@
         <f>B26+5</f>
         <v>44852</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>53</v>
+      <c r="C28" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="30"/>
@@ -2237,11 +2251,11 @@
         <f>B28+2</f>
         <v>44854</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
+      <c r="C30" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -2260,8 +2274,8 @@
         <f>B30+5</f>
         <v>44859</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>32</v>
+      <c r="C32" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
@@ -2281,17 +2295,17 @@
         <f>B32+2</f>
         <v>44861</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>32</v>
+      <c r="C34" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:29" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2375,7 +2389,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -2416,10 +2430,10 @@
         <v>44875</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E44" s="26"/>
     </row>
@@ -2474,7 +2488,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="15">
         <f>B48+5</f>
@@ -2494,14 +2508,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="16">
         <f>B50+2</f>
         <v>44889</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2511,7 +2525,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B54" s="16">
         <f>B52+5</f>
@@ -2530,28 +2544,28 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="15">
         <f>B54+2</f>
         <v>44896</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B58" s="16">
         <f>B56+5</f>
         <v>44901</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
